--- a/public/budgetReport.xlsx
+++ b/public/budgetReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07579F1F-E6CC-4370-81A5-65AB6728E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF67353-16EB-4419-B98A-F3EF5DD00E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F0AB739-4683-4842-A805-24014139A587}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{1F0AB739-4683-4842-A805-24014139A587}"/>
   </bookViews>
   <sheets>
     <sheet name="budgetReport (14)" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Total Dollars Saved</t>
   </si>
   <si>
-    <t>Total Dollars Missed</t>
-  </si>
-  <si>
     <t>Rewards+ Points</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Rewards Benefit</t>
   </si>
   <si>
-    <t>Earn 2x points on all gaming purchases</t>
-  </si>
-  <si>
     <t>Free shipping on orders over $50</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>Savings Per Month</t>
+  </si>
+  <si>
+    <t>Additional Savings Available</t>
+  </si>
+  <si>
+    <t>Earn 2x points on safety supplies purchases</t>
   </si>
 </sst>
 </file>
@@ -1193,31 +1193,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DAED9F-91ED-427C-A405-35750E49E09A}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1265,50 +1265,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>12300</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>15600</v>
@@ -1318,9 +1318,9 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>8900</v>
@@ -1330,9 +1330,9 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>7400</v>
@@ -1342,9 +1342,9 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>5200</v>
@@ -1354,9 +1354,9 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>3600</v>
@@ -1366,9 +1366,9 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>2800</v>
@@ -1378,9 +1378,9 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>2300</v>
@@ -1390,9 +1390,9 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>2100</v>
@@ -1402,9 +1402,9 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>1800</v>
@@ -1414,9 +1414,9 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>1500</v>
@@ -1426,9 +1426,9 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>1200</v>
@@ -1438,9 +1438,9 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>1000</v>
@@ -1450,9 +1450,9 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>900</v>
@@ -1462,138 +1462,138 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="8">
         <v>1200</v>
@@ -1605,12 +1605,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="8">
         <v>2500</v>
@@ -1622,12 +1622,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="8">
         <v>1900</v>
@@ -1639,12 +1639,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="8">
         <v>1200</v>
@@ -1656,37 +1656,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="3" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="8">
         <v>164.99</v>
@@ -1695,18 +1695,18 @@
         <v>139.99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="8">
         <v>369.99</v>
@@ -1715,18 +1715,18 @@
         <v>319.99</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="8">
         <v>139.75</v>
@@ -1735,18 +1735,18 @@
         <v>119.99</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="8">
         <v>329.85</v>
@@ -1755,18 +1755,18 @@
         <v>289.99</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="7">
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="8">
         <v>169.9</v>
@@ -1775,104 +1775,104 @@
         <v>149.99</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="7">
         <v>0.12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D58" s="8">
         <v>79.89</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="8">
         <v>63.99</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D60" s="8">
         <v>18.559999999999999</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D61" s="8">
         <v>69.989999999999995</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F61" s="4"/>
     </row>
